--- a/sample_asset.xlsx
+++ b/sample_asset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>assid</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>BRN</t>
+  </si>
+  <si>
+    <t>licexp</t>
   </si>
 </sst>
 </file>
@@ -406,18 +409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +452,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>121212</v>
       </c>
@@ -479,6 +486,9 @@
       </c>
       <c r="J2">
         <v>101010</v>
+      </c>
+      <c r="K2" s="1">
+        <v>47484</v>
       </c>
     </row>
   </sheetData>
